--- a/NRI_STLF_Data/WeatherData/T_rasht/T_rasht95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_rasht/T_rasht95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_rasht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_rasht\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Rain-Thunderstorm</t>
   </si>
@@ -251,12 +251,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -590,13 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -673,7 +673,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -753,7 +753,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -833,7 +833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -910,7 +910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -987,7 +987,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -13100,8 +13100,65 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>34</v>
+      </c>
+      <c r="G161">
+        <v>28</v>
+      </c>
+      <c r="H161">
+        <v>22</v>
+      </c>
+      <c r="I161">
+        <v>23</v>
+      </c>
+      <c r="J161">
+        <v>22</v>
+      </c>
+      <c r="K161">
+        <v>20</v>
+      </c>
+      <c r="L161">
+        <v>94</v>
+      </c>
+      <c r="M161">
+        <v>69</v>
+      </c>
+      <c r="N161">
+        <v>42</v>
+      </c>
+      <c r="O161">
+        <v>1015</v>
+      </c>
+      <c r="P161">
+        <v>1013</v>
+      </c>
+      <c r="Q161">
+        <v>1012</v>
+      </c>
+      <c r="R161">
+        <v>10</v>
+      </c>
+      <c r="S161">
+        <v>6</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
+        <v>19</v>
+      </c>
+      <c r="V161">
+        <v>3</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -13117,8 +13174,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>34</v>
+      </c>
+      <c r="G162">
+        <v>29</v>
+      </c>
+      <c r="H162">
+        <v>23</v>
+      </c>
+      <c r="I162">
+        <v>25</v>
+      </c>
+      <c r="J162">
+        <v>22</v>
+      </c>
+      <c r="K162">
+        <v>19</v>
+      </c>
+      <c r="L162">
+        <v>100</v>
+      </c>
+      <c r="M162">
+        <v>69</v>
+      </c>
+      <c r="N162">
+        <v>35</v>
+      </c>
+      <c r="O162">
+        <v>1016</v>
+      </c>
+      <c r="P162">
+        <v>1013</v>
+      </c>
+      <c r="Q162">
+        <v>1011</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>8</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>3</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>3</v>
+      </c>
+      <c r="AA162">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -13134,8 +13251,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163">
+        <v>28</v>
+      </c>
+      <c r="H163">
+        <v>22</v>
+      </c>
+      <c r="I163">
+        <v>23</v>
+      </c>
+      <c r="J163">
+        <v>21</v>
+      </c>
+      <c r="K163">
+        <v>16</v>
+      </c>
+      <c r="L163">
+        <v>94</v>
+      </c>
+      <c r="M163">
+        <v>67</v>
+      </c>
+      <c r="N163">
+        <v>34</v>
+      </c>
+      <c r="O163">
+        <v>1015</v>
+      </c>
+      <c r="P163">
+        <v>1013</v>
+      </c>
+      <c r="Q163">
+        <v>1010</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>8</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>14</v>
+      </c>
+      <c r="V163">
+        <v>3</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>4</v>
+      </c>
+      <c r="AA163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13151,8 +13328,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164">
+        <v>29</v>
+      </c>
+      <c r="H164">
+        <v>25</v>
+      </c>
+      <c r="I164">
+        <v>23</v>
+      </c>
+      <c r="J164">
+        <v>22</v>
+      </c>
+      <c r="K164">
+        <v>22</v>
+      </c>
+      <c r="L164">
+        <v>89</v>
+      </c>
+      <c r="M164">
+        <v>70</v>
+      </c>
+      <c r="N164">
+        <v>44</v>
+      </c>
+      <c r="O164">
+        <v>1014</v>
+      </c>
+      <c r="P164">
+        <v>1012</v>
+      </c>
+      <c r="Q164">
+        <v>1010</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>8</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
+        <v>14</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>4</v>
+      </c>
+      <c r="AA164">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13168,8 +13405,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165">
+        <v>28</v>
+      </c>
+      <c r="H165">
+        <v>23</v>
+      </c>
+      <c r="I165">
+        <v>24</v>
+      </c>
+      <c r="J165">
+        <v>23</v>
+      </c>
+      <c r="K165">
+        <v>21</v>
+      </c>
+      <c r="L165">
+        <v>100</v>
+      </c>
+      <c r="M165">
+        <v>76</v>
+      </c>
+      <c r="N165">
+        <v>43</v>
+      </c>
+      <c r="O165">
+        <v>1011</v>
+      </c>
+      <c r="P165">
+        <v>1008</v>
+      </c>
+      <c r="Q165">
+        <v>1004</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>7</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>19</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="AA165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13185,8 +13482,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166">
+        <v>28</v>
+      </c>
+      <c r="H166">
+        <v>24</v>
+      </c>
+      <c r="I166">
+        <v>25</v>
+      </c>
+      <c r="J166">
+        <v>24</v>
+      </c>
+      <c r="K166">
+        <v>23</v>
+      </c>
+      <c r="L166">
+        <v>94</v>
+      </c>
+      <c r="M166">
+        <v>75</v>
+      </c>
+      <c r="N166">
+        <v>50</v>
+      </c>
+      <c r="O166">
+        <v>1009</v>
+      </c>
+      <c r="P166">
+        <v>1006</v>
+      </c>
+      <c r="Q166">
+        <v>1005</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>8</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>14</v>
+      </c>
+      <c r="V166">
+        <v>3</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>6</v>
+      </c>
+      <c r="AA166">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13202,8 +13559,71 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>24</v>
+      </c>
+      <c r="G167">
+        <v>22</v>
+      </c>
+      <c r="H167">
+        <v>21</v>
+      </c>
+      <c r="I167">
+        <v>24</v>
+      </c>
+      <c r="J167">
+        <v>22</v>
+      </c>
+      <c r="K167">
+        <v>21</v>
+      </c>
+      <c r="L167">
+        <v>100</v>
+      </c>
+      <c r="M167">
+        <v>97</v>
+      </c>
+      <c r="N167">
+        <v>89</v>
+      </c>
+      <c r="O167">
+        <v>1014</v>
+      </c>
+      <c r="P167">
+        <v>1012</v>
+      </c>
+      <c r="Q167">
+        <v>1008</v>
+      </c>
+      <c r="R167">
+        <v>6</v>
+      </c>
+      <c r="S167">
+        <v>4</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>19</v>
+      </c>
+      <c r="V167">
+        <v>8</v>
+      </c>
+      <c r="X167">
+        <v>16</v>
+      </c>
+      <c r="Y167">
+        <v>8</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13219,8 +13639,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>25</v>
+      </c>
+      <c r="G168">
+        <v>23</v>
+      </c>
+      <c r="H168">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13236,8 +13665,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>28</v>
+      </c>
+      <c r="G169">
+        <v>25</v>
+      </c>
+      <c r="H169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13253,8 +13691,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>27</v>
+      </c>
+      <c r="G170">
+        <v>24</v>
+      </c>
+      <c r="H170">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13270,8 +13717,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>28</v>
+      </c>
+      <c r="G171">
+        <v>25</v>
+      </c>
+      <c r="H171">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13287,8 +13743,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>24</v>
+      </c>
+      <c r="G172">
+        <v>22</v>
+      </c>
+      <c r="H172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13305,7 +13770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13322,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13339,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13356,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13373,7 +13838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13390,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13407,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13424,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13441,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13458,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13475,7 +13940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13492,7 +13957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13509,7 +13974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13526,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13543,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13560,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13577,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13594,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13611,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13628,7 +14093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13645,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13662,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13679,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13696,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13713,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13730,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13747,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13764,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13781,7 +14246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13798,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13815,7 +14280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13832,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13849,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13866,7 +14331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13883,7 +14348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13900,7 +14365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13917,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13934,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13951,7 +14416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13968,7 +14433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13985,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -14002,7 +14467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -14019,7 +14484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -14036,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -14053,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -14070,7 +14535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -14087,7 +14552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -14104,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -14121,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14138,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14155,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14172,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14189,7 +14654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14206,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14223,7 +14688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14240,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14257,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14274,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14291,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14308,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14325,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14342,7 +14807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14359,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14376,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14393,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14410,7 +14875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14427,7 +14892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14444,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14461,7 +14926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14478,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14495,7 +14960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14512,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14529,7 +14994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14546,7 +15011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14563,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14580,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14597,7 +15062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14614,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14631,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14648,7 +15113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14665,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14682,7 +15147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14699,7 +15164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14716,7 +15181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14733,7 +15198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14750,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14767,7 +15232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14784,7 +15249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14801,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14818,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14835,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14852,7 +15317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14869,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14886,7 +15351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14903,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14920,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14937,7 +15402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14954,7 +15419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14971,7 +15436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14988,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -15005,7 +15470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -15022,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -15039,7 +15504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -15056,7 +15521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -15073,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -15090,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -15107,7 +15572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -15124,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15141,7 +15606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15158,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15175,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15192,7 +15657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15209,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15226,7 +15691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15243,7 +15708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15260,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15277,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15294,7 +15759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15311,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15328,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15345,7 +15810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15362,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15379,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15396,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15413,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15430,7 +15895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15447,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15464,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15481,7 +15946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15498,7 +15963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15515,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15532,7 +15997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15549,7 +16014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15566,7 +16031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15583,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15600,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15617,7 +16082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15634,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15651,7 +16116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15668,7 +16133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15685,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15702,7 +16167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15719,7 +16184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15736,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15753,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15770,7 +16235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15787,7 +16252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15804,7 +16269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15821,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15838,7 +16303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15855,7 +16320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15872,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15889,7 +16354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15906,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15923,7 +16388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15940,7 +16405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15957,7 +16422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15974,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15991,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -16008,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -16025,7 +16490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -16042,7 +16507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -16059,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -16076,7 +16541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -16093,7 +16558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -16110,7 +16575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -16127,7 +16592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16144,7 +16609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16161,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16178,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16195,7 +16660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16212,7 +16677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16229,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16246,7 +16711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16263,7 +16728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16280,7 +16745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16297,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16314,7 +16779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16331,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16348,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16365,7 +16830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16382,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16399,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16416,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16433,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16450,7 +16915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16467,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16484,7 +16949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16501,7 +16966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16518,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16535,7 +17000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16552,7 +17017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16569,7 +17034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16597,7 +17062,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16609,7 +17074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
